--- a/Code/Results/Cases/Case_1_187/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_187/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.237010638005897</v>
+        <v>7.281461919790895</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.902345573790845</v>
+        <v>10.22403199079876</v>
       </c>
       <c r="E2">
-        <v>7.716610746544806</v>
+        <v>13.9548778311738</v>
       </c>
       <c r="F2">
-        <v>22.88748007391037</v>
+        <v>27.25277034875602</v>
       </c>
       <c r="G2">
-        <v>29.76132530853735</v>
+        <v>26.51541891655085</v>
       </c>
       <c r="H2">
-        <v>9.003094477920047</v>
+        <v>13.1576907187012</v>
       </c>
       <c r="I2">
-        <v>13.78533487272266</v>
+        <v>17.82547295445669</v>
       </c>
       <c r="J2">
-        <v>5.316047368331541</v>
+        <v>9.79760118383477</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>21.59647384182634</v>
+        <v>17.93939382243423</v>
       </c>
       <c r="N2">
-        <v>15.05033227472074</v>
+        <v>17.19057864341051</v>
       </c>
       <c r="O2">
-        <v>16.34810657092957</v>
+        <v>19.82791641170222</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.665149131986908</v>
+        <v>7.075783527932948</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.9103101087339</v>
+        <v>10.25299263611986</v>
       </c>
       <c r="E3">
-        <v>7.819019860505068</v>
+        <v>14.01658374581659</v>
       </c>
       <c r="F3">
-        <v>21.8770774722203</v>
+        <v>27.14206722156417</v>
       </c>
       <c r="G3">
-        <v>27.96929867815738</v>
+        <v>26.10151387948638</v>
       </c>
       <c r="H3">
-        <v>8.769772857294052</v>
+        <v>13.1571917940496</v>
       </c>
       <c r="I3">
-        <v>13.73040697172298</v>
+        <v>17.85781426329295</v>
       </c>
       <c r="J3">
-        <v>5.406900933253016</v>
+        <v>9.834813238555711</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20.21335552944367</v>
+        <v>17.49164126111245</v>
       </c>
       <c r="N3">
-        <v>14.74651200562525</v>
+        <v>17.12657724550398</v>
       </c>
       <c r="O3">
-        <v>15.64420606781118</v>
+        <v>19.75164677367438</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.293239936947371</v>
+        <v>6.946824128499326</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.918788167642014</v>
+        <v>10.27229533786319</v>
       </c>
       <c r="E4">
-        <v>7.887793010352278</v>
+        <v>14.05690234757764</v>
       </c>
       <c r="F4">
-        <v>21.25189909584144</v>
+        <v>27.08144833209294</v>
       </c>
       <c r="G4">
-        <v>26.83297915465492</v>
+        <v>25.85320015632577</v>
       </c>
       <c r="H4">
-        <v>8.629810670094653</v>
+        <v>13.15951818302927</v>
       </c>
       <c r="I4">
-        <v>13.7039178469645</v>
+        <v>17.88140524998053</v>
       </c>
       <c r="J4">
-        <v>5.464988770682823</v>
+        <v>9.858895253336376</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.31351703817036</v>
+        <v>17.21164983886202</v>
       </c>
       <c r="N4">
-        <v>14.56000054580283</v>
+        <v>17.08914550076535</v>
       </c>
       <c r="O4">
-        <v>15.20881232307687</v>
+        <v>19.70983515849041</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.136471252346356</v>
+        <v>6.893673620465007</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.923118565937305</v>
+        <v>10.28054375151336</v>
       </c>
       <c r="E5">
-        <v>7.917241057920066</v>
+        <v>14.07394388543131</v>
       </c>
       <c r="F5">
-        <v>20.99630558722217</v>
+        <v>27.05861419314027</v>
       </c>
       <c r="G5">
-        <v>26.36129992809779</v>
+        <v>25.75362065279408</v>
       </c>
       <c r="H5">
-        <v>8.573661304666457</v>
+        <v>13.16112890367258</v>
       </c>
       <c r="I5">
-        <v>13.69493096808959</v>
+        <v>17.89195870376868</v>
       </c>
       <c r="J5">
-        <v>5.489233355219729</v>
+        <v>9.869019697965173</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.93408999239885</v>
+        <v>17.09642556692604</v>
       </c>
       <c r="N5">
-        <v>14.48409758101985</v>
+        <v>17.07437194821698</v>
       </c>
       <c r="O5">
-        <v>15.03083894066979</v>
+        <v>19.69407151781981</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.110125651566879</v>
+        <v>6.884814114210982</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.923889725609001</v>
+        <v>10.28193649067206</v>
       </c>
       <c r="E6">
-        <v>7.922215131573693</v>
+        <v>14.07681054926203</v>
       </c>
       <c r="F6">
-        <v>20.95382628610874</v>
+        <v>27.05493597573447</v>
       </c>
       <c r="G6">
-        <v>26.28247215463749</v>
+        <v>25.73718700300903</v>
       </c>
       <c r="H6">
-        <v>8.564392937783596</v>
+        <v>13.16143640136275</v>
       </c>
       <c r="I6">
-        <v>13.69354747379597</v>
+        <v>17.8937678966801</v>
       </c>
       <c r="J6">
-        <v>5.493293623213075</v>
+        <v>9.87071964568718</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.87031711669887</v>
+        <v>17.07722921115228</v>
       </c>
       <c r="N6">
-        <v>14.47150287445511</v>
+        <v>17.07194813008638</v>
       </c>
       <c r="O6">
-        <v>15.00126163904949</v>
+        <v>19.69153132806638</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.291146782019208</v>
+        <v>6.946109644810758</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.918843059151966</v>
+        <v>10.27240503050283</v>
       </c>
       <c r="E7">
-        <v>7.888184473353317</v>
+        <v>14.05712970010247</v>
       </c>
       <c r="F7">
-        <v>21.24845489735573</v>
+        <v>27.08113279345174</v>
       </c>
       <c r="G7">
-        <v>26.82665217187789</v>
+        <v>25.85185048218828</v>
       </c>
       <c r="H7">
-        <v>8.629049756142583</v>
+        <v>13.15953722189956</v>
       </c>
       <c r="I7">
-        <v>13.70378934563819</v>
+        <v>17.88154377038001</v>
       </c>
       <c r="J7">
-        <v>5.465313427338089</v>
+        <v>9.859030535789651</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.3084515254654</v>
+        <v>17.21010023784159</v>
       </c>
       <c r="N7">
-        <v>14.55897635433464</v>
+        <v>17.08894430082094</v>
       </c>
       <c r="O7">
-        <v>15.20641396529858</v>
+        <v>19.70961738642317</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.0441523427349</v>
+        <v>7.211141057027868</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.904331054474047</v>
+        <v>10.23370199296221</v>
       </c>
       <c r="E8">
-        <v>7.750661105146661</v>
+        <v>13.97564955386309</v>
       </c>
       <c r="F8">
-        <v>22.54029817451332</v>
+        <v>27.2130862379138</v>
       </c>
       <c r="G8">
-        <v>29.15113659687892</v>
+        <v>26.37158345622648</v>
       </c>
       <c r="H8">
-        <v>8.921994753267812</v>
+        <v>13.15697276477512</v>
       </c>
       <c r="I8">
-        <v>13.76488728544193</v>
+        <v>17.83585015283238</v>
       </c>
       <c r="J8">
-        <v>5.346891770804106</v>
+        <v>9.810176223420275</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>21.13006511206005</v>
+        <v>17.78614788552477</v>
       </c>
       <c r="N8">
-        <v>14.94562274656094</v>
+        <v>17.16813059625819</v>
       </c>
       <c r="O8">
-        <v>16.10620973801284</v>
+        <v>19.80058544243269</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.35564741733002</v>
+        <v>7.70670135305056</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.905533054379585</v>
+        <v>10.16987172916344</v>
       </c>
       <c r="E9">
-        <v>7.530629256407627</v>
+        <v>13.83515056613237</v>
       </c>
       <c r="F9">
-        <v>25.02149609115201</v>
+        <v>27.52921239607999</v>
       </c>
       <c r="G9">
-        <v>33.40973850255344</v>
+        <v>27.43049946469981</v>
       </c>
       <c r="H9">
-        <v>9.520183226115082</v>
+        <v>13.17279143768526</v>
       </c>
       <c r="I9">
-        <v>13.94253039404592</v>
+        <v>17.77580848747751</v>
       </c>
       <c r="J9">
-        <v>5.133260681966314</v>
+        <v>9.724133373030419</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>24.30194139762022</v>
+        <v>18.86942902924899</v>
       </c>
       <c r="N9">
-        <v>15.7001741992831</v>
+        <v>17.33771083450677</v>
       </c>
       <c r="O9">
-        <v>17.83566358762321</v>
+        <v>20.0181401809721</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.21861506164374</v>
+        <v>8.052458994604498</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.926126061640312</v>
+        <v>10.13033110705491</v>
       </c>
       <c r="E10">
-        <v>7.403558074148149</v>
+        <v>13.74367459360978</v>
       </c>
       <c r="F10">
-        <v>26.79718677189368</v>
+        <v>27.79496149997234</v>
       </c>
       <c r="G10">
-        <v>36.35244101251875</v>
+        <v>28.22394852766971</v>
       </c>
       <c r="H10">
-        <v>9.971072592133908</v>
+        <v>13.19704821453833</v>
       </c>
       <c r="I10">
-        <v>14.10867378655867</v>
+        <v>17.7496286730761</v>
       </c>
       <c r="J10">
-        <v>4.988175695125979</v>
+        <v>9.666827950204194</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>26.39061885493644</v>
+        <v>19.62950500750967</v>
       </c>
       <c r="N10">
-        <v>16.24729380707282</v>
+        <v>17.47031863386394</v>
       </c>
       <c r="O10">
-        <v>19.07428201980301</v>
+        <v>20.20087504577739</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.58946333273664</v>
+        <v>8.205116826577108</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.940120511856986</v>
+        <v>10.11394006120905</v>
       </c>
       <c r="E11">
-        <v>7.354300870843414</v>
+        <v>13.70460998202254</v>
       </c>
       <c r="F11">
-        <v>27.59241091661211</v>
+        <v>27.92276553024792</v>
       </c>
       <c r="G11">
-        <v>37.68308832233782</v>
+        <v>28.58643584849528</v>
       </c>
       <c r="H11">
-        <v>10.17810867474202</v>
+        <v>13.21080391964055</v>
       </c>
       <c r="I11">
-        <v>14.19201629224217</v>
+        <v>17.74158901307198</v>
       </c>
       <c r="J11">
-        <v>4.924902789992363</v>
+        <v>9.642033209488323</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>27.28899036261486</v>
+        <v>19.96609639682711</v>
       </c>
       <c r="N11">
-        <v>16.49364336229596</v>
+        <v>17.53223060446653</v>
       </c>
       <c r="O11">
-        <v>19.62920666956634</v>
+        <v>20.28873742602424</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.72678204543329</v>
+        <v>8.262210867226759</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.946113237380924</v>
+        <v>10.10796272587556</v>
       </c>
       <c r="E12">
-        <v>7.33697164718544</v>
+        <v>13.69018373435809</v>
       </c>
       <c r="F12">
-        <v>27.89160199683872</v>
+        <v>27.97212179882391</v>
       </c>
       <c r="G12">
-        <v>38.17990039486751</v>
+        <v>28.72377391269915</v>
       </c>
       <c r="H12">
-        <v>10.25674525718048</v>
+        <v>13.21640159507226</v>
       </c>
       <c r="I12">
-        <v>14.22468985912509</v>
+        <v>17.73909865082274</v>
       </c>
       <c r="J12">
-        <v>4.901351133582512</v>
+        <v>9.63282665674846</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>27.6217953223077</v>
+        <v>20.09213101566255</v>
       </c>
       <c r="N12">
-        <v>16.58648979707397</v>
+        <v>17.55588977726533</v>
       </c>
       <c r="O12">
-        <v>19.83802216104642</v>
+        <v>20.32266717306349</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.69734629551447</v>
+        <v>8.249947127958912</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.944791316697065</v>
+        <v>10.10923983954807</v>
       </c>
       <c r="E13">
-        <v>7.34064338158399</v>
+        <v>13.69327437296524</v>
       </c>
       <c r="F13">
-        <v>27.82725402641698</v>
+        <v>27.96144993144987</v>
       </c>
       <c r="G13">
-        <v>38.07321676586333</v>
+        <v>28.69419483928437</v>
       </c>
       <c r="H13">
-        <v>10.23979950816434</v>
+        <v>13.21517879384928</v>
       </c>
       <c r="I13">
-        <v>14.2176035647584</v>
+        <v>17.73961039232907</v>
       </c>
       <c r="J13">
-        <v>4.906404950653516</v>
+        <v>9.634801335674867</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>27.55044747217977</v>
+        <v>20.06505219027315</v>
       </c>
       <c r="N13">
-        <v>16.56651441089042</v>
+        <v>17.55078503714487</v>
       </c>
       <c r="O13">
-        <v>19.79311004202111</v>
+        <v>20.31533089835471</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.60082296011844</v>
+        <v>8.209828561336948</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.940599481845603</v>
+        <v>10.11344370038203</v>
       </c>
       <c r="E14">
-        <v>7.352848100798094</v>
+        <v>13.70341577581745</v>
       </c>
       <c r="F14">
-        <v>27.61706513431068</v>
+        <v>27.92680707148083</v>
       </c>
       <c r="G14">
-        <v>37.72410282473437</v>
+        <v>28.59773413330966</v>
       </c>
       <c r="H14">
-        <v>10.18457361892416</v>
+        <v>13.21125667009596</v>
       </c>
       <c r="I14">
-        <v>14.19468207292095</v>
+        <v>17.74137303929637</v>
       </c>
       <c r="J14">
-        <v>4.922956892589294</v>
+        <v>9.64127212249725</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>27.31651816371</v>
+        <v>19.97649448160686</v>
       </c>
       <c r="N14">
-        <v>16.50129114384693</v>
+        <v>17.53417284138042</v>
       </c>
       <c r="O14">
-        <v>19.64641299508547</v>
+        <v>20.29151579085347</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.54129449472789</v>
+        <v>8.185160418079004</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.938122982214127</v>
+        <v>10.11604858887038</v>
       </c>
       <c r="E15">
-        <v>7.360499090679299</v>
+        <v>13.709675437033</v>
       </c>
       <c r="F15">
-        <v>27.48806192442986</v>
+        <v>27.90571123910094</v>
       </c>
       <c r="G15">
-        <v>37.50934067306011</v>
+        <v>28.53865416886853</v>
       </c>
       <c r="H15">
-        <v>10.15077589430586</v>
+        <v>13.20890479116949</v>
       </c>
       <c r="I15">
-        <v>14.18078689432077</v>
+        <v>17.74252479474729</v>
       </c>
       <c r="J15">
-        <v>4.933149153481694</v>
+        <v>9.645259441885637</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>27.1722692507922</v>
+        <v>19.9220617183733</v>
       </c>
       <c r="N15">
-        <v>16.46128044573654</v>
+        <v>17.52402490318635</v>
       </c>
       <c r="O15">
-        <v>19.55638224954224</v>
+        <v>20.27701336602491</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.19394297882769</v>
+        <v>8.042385039365517</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.925306991677662</v>
+        <v>10.13143442579335</v>
       </c>
       <c r="E16">
-        <v>7.406957071887721</v>
+        <v>13.74627885490994</v>
       </c>
       <c r="F16">
-        <v>26.74495169831992</v>
+        <v>27.78674541784935</v>
       </c>
       <c r="G16">
-        <v>36.26448741879514</v>
+        <v>28.20027726380094</v>
       </c>
       <c r="H16">
-        <v>9.957577425369873</v>
+        <v>13.1962037885533</v>
       </c>
       <c r="I16">
-        <v>14.10338319074561</v>
+        <v>17.7502317543711</v>
       </c>
       <c r="J16">
-        <v>4.992366932585891</v>
+        <v>9.668473934361007</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>26.33087097385148</v>
+        <v>19.60731411295707</v>
       </c>
       <c r="N16">
-        <v>16.23113660933704</v>
+        <v>17.466303313309</v>
       </c>
       <c r="O16">
-        <v>19.03783588901659</v>
+        <v>20.19522640278989</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.97529728055206</v>
+        <v>7.953575283238407</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.918649793113348</v>
+        <v>10.14128201049286</v>
       </c>
       <c r="E17">
-        <v>7.437712015168807</v>
+        <v>13.76938669624489</v>
       </c>
       <c r="F17">
-        <v>26.28575188102654</v>
+        <v>27.71551051641831</v>
       </c>
       <c r="G17">
-        <v>35.50605929505719</v>
+        <v>27.99298119499252</v>
       </c>
       <c r="H17">
-        <v>9.839518523340786</v>
+        <v>13.18910734627083</v>
       </c>
       <c r="I17">
-        <v>14.0578856515851</v>
+        <v>17.75594923110957</v>
       </c>
       <c r="J17">
-        <v>5.029404314605953</v>
+        <v>9.683041167038539</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>25.80147724904796</v>
+        <v>19.4117990463343</v>
       </c>
       <c r="N17">
-        <v>16.08924514675616</v>
+        <v>17.43128990677394</v>
       </c>
       <c r="O17">
-        <v>18.71746236433636</v>
+        <v>20.14624979731405</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.84749290766324</v>
+        <v>7.902061134329987</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.915254562169127</v>
+        <v>10.1470963172997</v>
       </c>
       <c r="E18">
-        <v>7.456200020878842</v>
+        <v>13.78291755438441</v>
       </c>
       <c r="F18">
-        <v>26.02045690704307</v>
+        <v>27.67519100266243</v>
       </c>
       <c r="G18">
-        <v>35.06946154297327</v>
+        <v>27.87390396533912</v>
       </c>
       <c r="H18">
-        <v>9.771797287658526</v>
+        <v>13.18528196913245</v>
       </c>
       <c r="I18">
-        <v>14.03244769168846</v>
+        <v>17.75960216158593</v>
       </c>
       <c r="J18">
-        <v>5.05096278612118</v>
+        <v>9.691539777142967</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>25.49210656932513</v>
+        <v>19.29848650206982</v>
       </c>
       <c r="N18">
-        <v>16.00739825631009</v>
+        <v>17.4113014420242</v>
       </c>
       <c r="O18">
-        <v>18.53239302251309</v>
+        <v>20.11852691192634</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.80386902614321</v>
+        <v>7.884546497166014</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.914178645349093</v>
+        <v>10.14909074271127</v>
       </c>
       <c r="E19">
-        <v>7.462594127299839</v>
+        <v>13.78754005637077</v>
       </c>
       <c r="F19">
-        <v>25.93043564062816</v>
+        <v>27.6616526663836</v>
       </c>
       <c r="G19">
-        <v>34.92093493193369</v>
+        <v>27.83361755085004</v>
       </c>
       <c r="H19">
-        <v>9.748900828591898</v>
+        <v>13.18403085729464</v>
       </c>
       <c r="I19">
-        <v>14.02396043278162</v>
+        <v>17.76090163343348</v>
       </c>
       <c r="J19">
-        <v>5.058305552354512</v>
+        <v>9.694437872573685</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>25.38651963883234</v>
+        <v>19.25997694974996</v>
       </c>
       <c r="N19">
-        <v>15.97964839858897</v>
+        <v>17.40455992845975</v>
       </c>
       <c r="O19">
-        <v>18.46959790583572</v>
+        <v>20.10921789291845</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.99878408982381</v>
+        <v>7.963074427171013</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.919313361431369</v>
+        <v>10.14021816884944</v>
       </c>
       <c r="E20">
-        <v>7.434354786410241</v>
+        <v>13.76690200304328</v>
       </c>
       <c r="F20">
-        <v>26.33475727355876</v>
+        <v>27.72302626246744</v>
       </c>
       <c r="G20">
-        <v>35.58652979134853</v>
+        <v>28.01503337904417</v>
       </c>
       <c r="H20">
-        <v>9.852067455667928</v>
+        <v>13.18983626545859</v>
       </c>
       <c r="I20">
-        <v>14.06265329658952</v>
+        <v>17.75530289944651</v>
       </c>
       <c r="J20">
-        <v>5.025435064372167</v>
+        <v>9.681478052245023</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>25.85833651531387</v>
+        <v>19.43270150220478</v>
       </c>
       <c r="N20">
-        <v>16.10437458951543</v>
+        <v>17.43500168596357</v>
       </c>
       <c r="O20">
-        <v>18.75165015083682</v>
+        <v>20.15141732183127</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.62925861259594</v>
+        <v>8.221632101798637</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.941811686272158</v>
+        <v>10.11220269282034</v>
       </c>
       <c r="E21">
-        <v>7.349226580951586</v>
+        <v>13.70042704654475</v>
       </c>
       <c r="F21">
-        <v>27.67885633889482</v>
+        <v>27.93695675861967</v>
       </c>
       <c r="G21">
-        <v>37.82683762030605</v>
+        <v>28.62606619912038</v>
       </c>
       <c r="H21">
-        <v>10.20078866794428</v>
+        <v>13.21239816659819</v>
       </c>
       <c r="I21">
-        <v>14.20138448252936</v>
+        <v>17.74084028964491</v>
       </c>
       <c r="J21">
-        <v>4.918083958123478</v>
+        <v>9.639366541595834</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>27.38542892076941</v>
+        <v>20.00254551047473</v>
       </c>
       <c r="N21">
-        <v>16.52046133921771</v>
+        <v>17.5390465377571</v>
       </c>
       <c r="O21">
-        <v>19.68953798417576</v>
+        <v>20.29849319027139</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.02316852529625</v>
+        <v>8.386432630881249</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.960569748282548</v>
+        <v>10.09523125850891</v>
       </c>
       <c r="E22">
-        <v>7.301352262742028</v>
+        <v>13.65911920099368</v>
       </c>
       <c r="F22">
-        <v>28.54594215447705</v>
+        <v>28.08234902756685</v>
       </c>
       <c r="G22">
-        <v>39.2597755879948</v>
+        <v>29.02576496948683</v>
       </c>
       <c r="H22">
-        <v>10.43006320624889</v>
+        <v>13.22940778640056</v>
       </c>
       <c r="I22">
-        <v>14.2985411459897</v>
+        <v>17.73461647906183</v>
       </c>
       <c r="J22">
-        <v>4.850314000689635</v>
+        <v>9.612908799372629</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>28.3404348065019</v>
+        <v>20.36662121237774</v>
       </c>
       <c r="N22">
-        <v>16.78979745107946</v>
+        <v>17.60828924862987</v>
       </c>
       <c r="O22">
-        <v>20.29476965419895</v>
+        <v>20.39844068234623</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.81458752569417</v>
+        <v>8.298872917151696</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.950178064178104</v>
+        <v>10.10416675735699</v>
       </c>
       <c r="E23">
-        <v>7.326160769953622</v>
+        <v>13.68097031940024</v>
       </c>
       <c r="F23">
-        <v>28.08423671814275</v>
+        <v>28.00425207495669</v>
       </c>
       <c r="G23">
-        <v>38.49873812904316</v>
+        <v>28.81245415768114</v>
       </c>
       <c r="H23">
-        <v>10.30758158966795</v>
+        <v>13.22012322007135</v>
       </c>
       <c r="I23">
-        <v>14.24609468642957</v>
+        <v>17.73764369815336</v>
       </c>
       <c r="J23">
-        <v>4.886259280202011</v>
+        <v>9.626932545865635</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>27.83464781335297</v>
+        <v>20.1731040124788</v>
       </c>
       <c r="N23">
-        <v>16.64630931380389</v>
+        <v>17.57122399436593</v>
       </c>
       <c r="O23">
-        <v>19.97247782524926</v>
+        <v>20.34475468251003</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.98817225148418</v>
+        <v>7.958781281541754</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.919012018484079</v>
+        <v>10.14069865571398</v>
       </c>
       <c r="E24">
-        <v>7.43587008427601</v>
+        <v>13.76802456704583</v>
       </c>
       <c r="F24">
-        <v>26.31260595783867</v>
+        <v>27.71962641498958</v>
       </c>
       <c r="G24">
-        <v>35.55016245055138</v>
+        <v>28.00506326346388</v>
       </c>
       <c r="H24">
-        <v>9.846393605531407</v>
+        <v>13.18950592823689</v>
       </c>
       <c r="I24">
-        <v>14.06049560401178</v>
+        <v>17.7555939661624</v>
       </c>
       <c r="J24">
-        <v>5.027228737599508</v>
+        <v>9.682184351039851</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>25.83264606642026</v>
+        <v>19.42325432292902</v>
       </c>
       <c r="N24">
-        <v>16.09753540859783</v>
+        <v>17.43332314968954</v>
       </c>
       <c r="O24">
-        <v>18.73619659321548</v>
+        <v>20.14907972905904</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.0185411452319</v>
+        <v>7.575618328287377</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.901864042250369</v>
+        <v>10.1858477527694</v>
       </c>
       <c r="E25">
-        <v>7.58441262614694</v>
+        <v>13.87109568737666</v>
       </c>
       <c r="F25">
-        <v>24.35762206858367</v>
+        <v>27.43769375697336</v>
       </c>
       <c r="G25">
-        <v>32.29135244217078</v>
+        <v>27.1406887807382</v>
       </c>
       <c r="H25">
-        <v>9.3561471523123</v>
+        <v>13.16628650446294</v>
       </c>
       <c r="I25">
-        <v>13.88823248481389</v>
+        <v>17.78889475117704</v>
       </c>
       <c r="J25">
-        <v>5.189013967313651</v>
+        <v>9.746369500046564</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>23.48650995230199</v>
+        <v>18.58215106567086</v>
       </c>
       <c r="N25">
-        <v>15.49697393277621</v>
+        <v>17.29037502529173</v>
       </c>
       <c r="O25">
-        <v>17.37277330791661</v>
+        <v>19.95518773915965</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_187/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_187/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.281461919790895</v>
+        <v>9.237010638005909</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.22403199079876</v>
+        <v>5.902345573790845</v>
       </c>
       <c r="E2">
-        <v>13.9548778311738</v>
+        <v>7.716610746544863</v>
       </c>
       <c r="F2">
-        <v>27.25277034875602</v>
+        <v>22.88748007391037</v>
       </c>
       <c r="G2">
-        <v>26.51541891655085</v>
+        <v>29.76132530853735</v>
       </c>
       <c r="H2">
-        <v>13.1576907187012</v>
+        <v>9.00309447792003</v>
       </c>
       <c r="I2">
-        <v>17.82547295445669</v>
+        <v>13.78533487272257</v>
       </c>
       <c r="J2">
-        <v>9.79760118383477</v>
+        <v>5.316047368331605</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.93939382243423</v>
+        <v>21.59647384182634</v>
       </c>
       <c r="N2">
-        <v>17.19057864341051</v>
+        <v>15.05033227472071</v>
       </c>
       <c r="O2">
-        <v>19.82791641170222</v>
+        <v>16.34810657092957</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.075783527932948</v>
+        <v>8.665149131986929</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.25299263611986</v>
+        <v>5.910310108733901</v>
       </c>
       <c r="E3">
-        <v>14.01658374581659</v>
+        <v>7.819019860505066</v>
       </c>
       <c r="F3">
-        <v>27.14206722156417</v>
+        <v>21.87707747222026</v>
       </c>
       <c r="G3">
-        <v>26.10151387948638</v>
+        <v>27.96929867815733</v>
       </c>
       <c r="H3">
-        <v>13.1571917940496</v>
+        <v>8.769772857294027</v>
       </c>
       <c r="I3">
-        <v>17.85781426329295</v>
+        <v>13.7304069717229</v>
       </c>
       <c r="J3">
-        <v>9.834813238555711</v>
+        <v>5.406900933253015</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.49164126111245</v>
+        <v>20.21335552944368</v>
       </c>
       <c r="N3">
-        <v>17.12657724550398</v>
+        <v>14.74651200562523</v>
       </c>
       <c r="O3">
-        <v>19.75164677367438</v>
+        <v>15.64420606781116</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.946824128499326</v>
+        <v>8.293239936947369</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.27229533786319</v>
+        <v>5.918788167641844</v>
       </c>
       <c r="E4">
-        <v>14.05690234757764</v>
+        <v>7.887793010352217</v>
       </c>
       <c r="F4">
-        <v>27.08144833209294</v>
+        <v>21.25189909584142</v>
       </c>
       <c r="G4">
-        <v>25.85320015632577</v>
+        <v>26.83297915465499</v>
       </c>
       <c r="H4">
-        <v>13.15951818302927</v>
+        <v>8.629810670094631</v>
       </c>
       <c r="I4">
-        <v>17.88140524998053</v>
+        <v>13.70391784696447</v>
       </c>
       <c r="J4">
-        <v>9.858895253336376</v>
+        <v>5.46498877068289</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.21164983886202</v>
+        <v>19.31351703817036</v>
       </c>
       <c r="N4">
-        <v>17.08914550076535</v>
+        <v>14.56000054580283</v>
       </c>
       <c r="O4">
-        <v>19.70983515849041</v>
+        <v>15.20881232307688</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.893673620465007</v>
+        <v>8.13647125234638</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.28054375151336</v>
+        <v>5.923118565937309</v>
       </c>
       <c r="E5">
-        <v>14.07394388543131</v>
+        <v>7.917241057920005</v>
       </c>
       <c r="F5">
-        <v>27.05861419314027</v>
+        <v>20.99630558722223</v>
       </c>
       <c r="G5">
-        <v>25.75362065279408</v>
+        <v>26.36129992809782</v>
       </c>
       <c r="H5">
-        <v>13.16112890367258</v>
+        <v>8.573661304666471</v>
       </c>
       <c r="I5">
-        <v>17.89195870376868</v>
+        <v>13.69493096808957</v>
       </c>
       <c r="J5">
-        <v>9.869019697965173</v>
+        <v>5.489233355219699</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.09642556692604</v>
+        <v>18.93408999239882</v>
       </c>
       <c r="N5">
-        <v>17.07437194821698</v>
+        <v>14.48409758101984</v>
       </c>
       <c r="O5">
-        <v>19.69407151781981</v>
+        <v>15.03083894066984</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.884814114210982</v>
+        <v>8.110125651566905</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.28193649067206</v>
+        <v>5.923889725608881</v>
       </c>
       <c r="E6">
-        <v>14.07681054926203</v>
+        <v>7.922215131573507</v>
       </c>
       <c r="F6">
-        <v>27.05493597573447</v>
+        <v>20.95382628610862</v>
       </c>
       <c r="G6">
-        <v>25.73718700300903</v>
+        <v>26.28247215463747</v>
       </c>
       <c r="H6">
-        <v>13.16143640136275</v>
+        <v>8.564392937783577</v>
       </c>
       <c r="I6">
-        <v>17.8937678966801</v>
+        <v>13.69354747379598</v>
       </c>
       <c r="J6">
-        <v>9.87071964568718</v>
+        <v>5.493293623213107</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.07722921115228</v>
+        <v>18.87031711669894</v>
       </c>
       <c r="N6">
-        <v>17.07194813008638</v>
+        <v>14.47150287445515</v>
       </c>
       <c r="O6">
-        <v>19.69153132806638</v>
+        <v>15.00126163904944</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.946109644810758</v>
+        <v>8.291146782019235</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.27240503050283</v>
+        <v>5.918843059152038</v>
       </c>
       <c r="E7">
-        <v>14.05712970010247</v>
+        <v>7.888184473353322</v>
       </c>
       <c r="F7">
-        <v>27.08113279345174</v>
+        <v>21.24845489735581</v>
       </c>
       <c r="G7">
-        <v>25.85185048218828</v>
+        <v>26.82665217187791</v>
       </c>
       <c r="H7">
-        <v>13.15953722189956</v>
+        <v>8.62904975614267</v>
       </c>
       <c r="I7">
-        <v>17.88154377038001</v>
+        <v>13.70378934563817</v>
       </c>
       <c r="J7">
-        <v>9.859030535789651</v>
+        <v>5.46531342733809</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.21010023784159</v>
+        <v>19.30845152546536</v>
       </c>
       <c r="N7">
-        <v>17.08894430082094</v>
+        <v>14.55897635433463</v>
       </c>
       <c r="O7">
-        <v>19.70961738642317</v>
+        <v>15.20641396529864</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.211141057027868</v>
+        <v>9.044152342734883</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.23370199296221</v>
+        <v>5.904331054474</v>
       </c>
       <c r="E8">
-        <v>13.97564955386309</v>
+        <v>7.750661105146604</v>
       </c>
       <c r="F8">
-        <v>27.2130862379138</v>
+        <v>22.54029817451332</v>
       </c>
       <c r="G8">
-        <v>26.37158345622648</v>
+        <v>29.15113659687891</v>
       </c>
       <c r="H8">
-        <v>13.15697276477512</v>
+        <v>8.921994753267857</v>
       </c>
       <c r="I8">
-        <v>17.83585015283238</v>
+        <v>13.76488728544193</v>
       </c>
       <c r="J8">
-        <v>9.810176223420275</v>
+        <v>5.346891770804106</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.78614788552477</v>
+        <v>21.13006511206004</v>
       </c>
       <c r="N8">
-        <v>17.16813059625819</v>
+        <v>14.94562274656094</v>
       </c>
       <c r="O8">
-        <v>19.80058544243269</v>
+        <v>16.10620973801285</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.70670135305056</v>
+        <v>10.35564741733</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.16987172916344</v>
+        <v>5.905533054379545</v>
       </c>
       <c r="E9">
-        <v>13.83515056613237</v>
+        <v>7.530629256407627</v>
       </c>
       <c r="F9">
-        <v>27.52921239607999</v>
+        <v>25.02149609115201</v>
       </c>
       <c r="G9">
-        <v>27.43049946469981</v>
+        <v>33.40973850255344</v>
       </c>
       <c r="H9">
-        <v>13.17279143768526</v>
+        <v>9.520183226115089</v>
       </c>
       <c r="I9">
-        <v>17.77580848747751</v>
+        <v>13.94253039404594</v>
       </c>
       <c r="J9">
-        <v>9.724133373030419</v>
+        <v>5.133260681966377</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.86942902924899</v>
+        <v>24.30194139762023</v>
       </c>
       <c r="N9">
-        <v>17.33771083450677</v>
+        <v>15.70017419928309</v>
       </c>
       <c r="O9">
-        <v>20.0181401809721</v>
+        <v>17.83566358762322</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.052458994604498</v>
+        <v>11.21861506164377</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.13033110705491</v>
+        <v>5.926126061640375</v>
       </c>
       <c r="E10">
-        <v>13.74367459360978</v>
+        <v>7.403558074148153</v>
       </c>
       <c r="F10">
-        <v>27.79496149997234</v>
+        <v>26.79718677189366</v>
       </c>
       <c r="G10">
-        <v>28.22394852766971</v>
+        <v>36.35244101251875</v>
       </c>
       <c r="H10">
-        <v>13.19704821453833</v>
+        <v>9.971072592133892</v>
       </c>
       <c r="I10">
-        <v>17.7496286730761</v>
+        <v>14.10867378655865</v>
       </c>
       <c r="J10">
-        <v>9.666827950204194</v>
+        <v>4.988175695125948</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.62950500750967</v>
+        <v>26.39061885493644</v>
       </c>
       <c r="N10">
-        <v>17.47031863386394</v>
+        <v>16.24729380707282</v>
       </c>
       <c r="O10">
-        <v>20.20087504577739</v>
+        <v>19.074282019803</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.205116826577108</v>
+        <v>11.58946333273668</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.11394006120905</v>
+        <v>5.940120511856891</v>
       </c>
       <c r="E11">
-        <v>13.70460998202254</v>
+        <v>7.354300870843418</v>
       </c>
       <c r="F11">
-        <v>27.92276553024792</v>
+        <v>27.59241091661214</v>
       </c>
       <c r="G11">
-        <v>28.58643584849528</v>
+        <v>37.68308832233787</v>
       </c>
       <c r="H11">
-        <v>13.21080391964055</v>
+        <v>10.178108674742</v>
       </c>
       <c r="I11">
-        <v>17.74158901307198</v>
+        <v>14.19201629224215</v>
       </c>
       <c r="J11">
-        <v>9.642033209488323</v>
+        <v>4.924902789992395</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.96609639682711</v>
+        <v>27.28899036261488</v>
       </c>
       <c r="N11">
-        <v>17.53223060446653</v>
+        <v>16.49364336229594</v>
       </c>
       <c r="O11">
-        <v>20.28873742602424</v>
+        <v>19.62920666956634</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.262210867226759</v>
+        <v>11.72678204543333</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.10796272587556</v>
+        <v>5.946113237380863</v>
       </c>
       <c r="E12">
-        <v>13.69018373435809</v>
+        <v>7.336971647185389</v>
       </c>
       <c r="F12">
-        <v>27.97212179882391</v>
+        <v>27.89160199683872</v>
       </c>
       <c r="G12">
-        <v>28.72377391269915</v>
+        <v>38.17990039486747</v>
       </c>
       <c r="H12">
-        <v>13.21640159507226</v>
+        <v>10.25674525718054</v>
       </c>
       <c r="I12">
-        <v>17.73909865082274</v>
+        <v>14.22468985912509</v>
       </c>
       <c r="J12">
-        <v>9.63282665674846</v>
+        <v>4.90135113358251</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.09213101566255</v>
+        <v>27.62179532230768</v>
       </c>
       <c r="N12">
-        <v>17.55588977726533</v>
+        <v>16.58648979707399</v>
       </c>
       <c r="O12">
-        <v>20.32266717306349</v>
+        <v>19.83802216104643</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.249947127958912</v>
+        <v>11.69734629551447</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.10923983954807</v>
+        <v>5.94479131669705</v>
       </c>
       <c r="E13">
-        <v>13.69327437296524</v>
+        <v>7.34064338158398</v>
       </c>
       <c r="F13">
-        <v>27.96144993144987</v>
+        <v>27.82725402641696</v>
       </c>
       <c r="G13">
-        <v>28.69419483928437</v>
+        <v>38.07321676586325</v>
       </c>
       <c r="H13">
-        <v>13.21517879384928</v>
+        <v>10.23979950816436</v>
       </c>
       <c r="I13">
-        <v>17.73961039232907</v>
+        <v>14.21760356475844</v>
       </c>
       <c r="J13">
-        <v>9.634801335674867</v>
+        <v>4.906404950653547</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.06505219027315</v>
+        <v>27.55044747217972</v>
       </c>
       <c r="N13">
-        <v>17.55078503714487</v>
+        <v>16.56651441089047</v>
       </c>
       <c r="O13">
-        <v>20.31533089835471</v>
+        <v>19.79311004202111</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.209828561336948</v>
+        <v>11.60082296011846</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.11344370038203</v>
+        <v>5.940599481845457</v>
       </c>
       <c r="E14">
-        <v>13.70341577581745</v>
+        <v>7.352848100798096</v>
       </c>
       <c r="F14">
-        <v>27.92680707148083</v>
+        <v>27.61706513431065</v>
       </c>
       <c r="G14">
-        <v>28.59773413330966</v>
+        <v>37.72410282473439</v>
       </c>
       <c r="H14">
-        <v>13.21125667009596</v>
+        <v>10.18457361892415</v>
       </c>
       <c r="I14">
-        <v>17.74137303929637</v>
+        <v>14.19468207292093</v>
       </c>
       <c r="J14">
-        <v>9.64127212249725</v>
+        <v>4.922956892589416</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.97649448160686</v>
+        <v>27.31651816371001</v>
       </c>
       <c r="N14">
-        <v>17.53417284138042</v>
+        <v>16.50129114384693</v>
       </c>
       <c r="O14">
-        <v>20.29151579085347</v>
+        <v>19.64641299508544</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.185160418079004</v>
+        <v>11.54129449472793</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.11604858887038</v>
+        <v>5.938122982214086</v>
       </c>
       <c r="E15">
-        <v>13.709675437033</v>
+        <v>7.360499090679299</v>
       </c>
       <c r="F15">
-        <v>27.90571123910094</v>
+        <v>27.48806192442987</v>
       </c>
       <c r="G15">
-        <v>28.53865416886853</v>
+        <v>37.5093406730601</v>
       </c>
       <c r="H15">
-        <v>13.20890479116949</v>
+        <v>10.15077589430586</v>
       </c>
       <c r="I15">
-        <v>17.74252479474729</v>
+        <v>14.18078689432074</v>
       </c>
       <c r="J15">
-        <v>9.645259441885637</v>
+        <v>4.933149153481755</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.9220617183733</v>
+        <v>27.17226925079218</v>
       </c>
       <c r="N15">
-        <v>17.52402490318635</v>
+        <v>16.46128044573654</v>
       </c>
       <c r="O15">
-        <v>20.27701336602491</v>
+        <v>19.55638224954224</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.042385039365517</v>
+        <v>11.19394297882771</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.13143442579335</v>
+        <v>5.925306991677634</v>
       </c>
       <c r="E16">
-        <v>13.74627885490994</v>
+        <v>7.406957071887716</v>
       </c>
       <c r="F16">
-        <v>27.78674541784935</v>
+        <v>26.74495169831991</v>
       </c>
       <c r="G16">
-        <v>28.20027726380094</v>
+        <v>36.26448741879507</v>
       </c>
       <c r="H16">
-        <v>13.1962037885533</v>
+        <v>9.957577425369895</v>
       </c>
       <c r="I16">
-        <v>17.7502317543711</v>
+        <v>14.10338319074561</v>
       </c>
       <c r="J16">
-        <v>9.668473934361007</v>
+        <v>4.99236693258586</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.60731411295707</v>
+        <v>26.33087097385143</v>
       </c>
       <c r="N16">
-        <v>17.466303313309</v>
+        <v>16.23113660933705</v>
       </c>
       <c r="O16">
-        <v>20.19522640278989</v>
+        <v>19.03783588901659</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.953575283238407</v>
+        <v>10.97529728055207</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.14128201049286</v>
+        <v>5.918649793113443</v>
       </c>
       <c r="E17">
-        <v>13.76938669624489</v>
+        <v>7.437712015168853</v>
       </c>
       <c r="F17">
-        <v>27.71551051641831</v>
+        <v>26.28575188102655</v>
       </c>
       <c r="G17">
-        <v>27.99298119499252</v>
+        <v>35.50605929505716</v>
       </c>
       <c r="H17">
-        <v>13.18910734627083</v>
+        <v>9.839518523340796</v>
       </c>
       <c r="I17">
-        <v>17.75594923110957</v>
+        <v>14.05788565158516</v>
       </c>
       <c r="J17">
-        <v>9.683041167038539</v>
+        <v>5.029404314605984</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.4117990463343</v>
+        <v>25.80147724904796</v>
       </c>
       <c r="N17">
-        <v>17.43128990677394</v>
+        <v>16.08924514675621</v>
       </c>
       <c r="O17">
-        <v>20.14624979731405</v>
+        <v>18.71746236433636</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.902061134329987</v>
+        <v>10.84749290766326</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.1470963172997</v>
+        <v>5.915254562169138</v>
       </c>
       <c r="E18">
-        <v>13.78291755438441</v>
+        <v>7.456200020878788</v>
       </c>
       <c r="F18">
-        <v>27.67519100266243</v>
+        <v>26.02045690704311</v>
       </c>
       <c r="G18">
-        <v>27.87390396533912</v>
+        <v>35.06946154297328</v>
       </c>
       <c r="H18">
-        <v>13.18528196913245</v>
+        <v>9.771797287658556</v>
       </c>
       <c r="I18">
-        <v>17.75960216158593</v>
+        <v>14.03244769168844</v>
       </c>
       <c r="J18">
-        <v>9.691539777142967</v>
+        <v>5.050962786121148</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.29848650206982</v>
+        <v>25.4921065693251</v>
       </c>
       <c r="N18">
-        <v>17.4113014420242</v>
+        <v>16.00739825631007</v>
       </c>
       <c r="O18">
-        <v>20.11852691192634</v>
+        <v>18.53239302251312</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.884546497166014</v>
+        <v>10.80386902614322</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.14909074271127</v>
+        <v>5.91417864534904</v>
       </c>
       <c r="E19">
-        <v>13.78754005637077</v>
+        <v>7.462594127299843</v>
       </c>
       <c r="F19">
-        <v>27.6616526663836</v>
+        <v>25.93043564062816</v>
       </c>
       <c r="G19">
-        <v>27.83361755085004</v>
+        <v>34.92093493193369</v>
       </c>
       <c r="H19">
-        <v>13.18403085729464</v>
+        <v>9.748900828591893</v>
       </c>
       <c r="I19">
-        <v>17.76090163343348</v>
+        <v>14.02396043278159</v>
       </c>
       <c r="J19">
-        <v>9.694437872573685</v>
+        <v>5.058305552354514</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.25997694974996</v>
+        <v>25.38651963883235</v>
       </c>
       <c r="N19">
-        <v>17.40455992845975</v>
+        <v>15.97964839858895</v>
       </c>
       <c r="O19">
-        <v>20.10921789291845</v>
+        <v>18.46959790583572</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.963074427171013</v>
+        <v>10.99878408982382</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.14021816884944</v>
+        <v>5.919313361431302</v>
       </c>
       <c r="E20">
-        <v>13.76690200304328</v>
+        <v>7.434354786410243</v>
       </c>
       <c r="F20">
-        <v>27.72302626246744</v>
+        <v>26.33475727355873</v>
       </c>
       <c r="G20">
-        <v>28.01503337904417</v>
+        <v>35.58652979134859</v>
       </c>
       <c r="H20">
-        <v>13.18983626545859</v>
+        <v>9.852067455667884</v>
       </c>
       <c r="I20">
-        <v>17.75530289944651</v>
+        <v>14.06265329658944</v>
       </c>
       <c r="J20">
-        <v>9.681478052245023</v>
+        <v>5.025435064372203</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.43270150220478</v>
+        <v>25.8583365153139</v>
       </c>
       <c r="N20">
-        <v>17.43500168596357</v>
+        <v>16.10437458951537</v>
       </c>
       <c r="O20">
-        <v>20.15141732183127</v>
+        <v>18.75165015083681</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.221632101798637</v>
+        <v>11.62925861259593</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.11220269282034</v>
+        <v>5.941811686272056</v>
       </c>
       <c r="E21">
-        <v>13.70042704654475</v>
+        <v>7.349226580951587</v>
       </c>
       <c r="F21">
-        <v>27.93695675861967</v>
+        <v>27.6788563388948</v>
       </c>
       <c r="G21">
-        <v>28.62606619912038</v>
+        <v>37.82683762030602</v>
       </c>
       <c r="H21">
-        <v>13.21239816659819</v>
+        <v>10.20078866794427</v>
       </c>
       <c r="I21">
-        <v>17.74084028964491</v>
+        <v>14.20138448252943</v>
       </c>
       <c r="J21">
-        <v>9.639366541595834</v>
+        <v>4.918083958123513</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.00254551047473</v>
+        <v>27.38542892076942</v>
       </c>
       <c r="N21">
-        <v>17.5390465377571</v>
+        <v>16.52046133921773</v>
       </c>
       <c r="O21">
-        <v>20.29849319027139</v>
+        <v>19.68953798417576</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.386432630881249</v>
+        <v>12.02316852529623</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.09523125850891</v>
+        <v>5.96056974828258</v>
       </c>
       <c r="E22">
-        <v>13.65911920099368</v>
+        <v>7.301352262742034</v>
       </c>
       <c r="F22">
-        <v>28.08234902756685</v>
+        <v>28.54594215447704</v>
       </c>
       <c r="G22">
-        <v>29.02576496948683</v>
+        <v>39.25977558799492</v>
       </c>
       <c r="H22">
-        <v>13.22940778640056</v>
+        <v>10.43006320624891</v>
       </c>
       <c r="I22">
-        <v>17.73461647906183</v>
+        <v>14.2985411459897</v>
       </c>
       <c r="J22">
-        <v>9.612908799372629</v>
+        <v>4.850314000689606</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.36662121237774</v>
+        <v>28.34043480650193</v>
       </c>
       <c r="N22">
-        <v>17.60828924862987</v>
+        <v>16.78979745107944</v>
       </c>
       <c r="O22">
-        <v>20.39844068234623</v>
+        <v>20.29476965419894</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.298872917151696</v>
+        <v>11.8145875256942</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.10416675735699</v>
+        <v>5.950178064178138</v>
       </c>
       <c r="E23">
-        <v>13.68097031940024</v>
+        <v>7.326160769953577</v>
       </c>
       <c r="F23">
-        <v>28.00425207495669</v>
+        <v>28.08423671814278</v>
       </c>
       <c r="G23">
-        <v>28.81245415768114</v>
+        <v>38.49873812904315</v>
       </c>
       <c r="H23">
-        <v>13.22012322007135</v>
+        <v>10.30758158966795</v>
       </c>
       <c r="I23">
-        <v>17.73764369815336</v>
+        <v>14.24609468642956</v>
       </c>
       <c r="J23">
-        <v>9.626932545865635</v>
+        <v>4.886259280202007</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.1731040124788</v>
+        <v>27.83464781335299</v>
       </c>
       <c r="N23">
-        <v>17.57122399436593</v>
+        <v>16.6463093138039</v>
       </c>
       <c r="O23">
-        <v>20.34475468251003</v>
+        <v>19.97247782524927</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.958781281541754</v>
+        <v>10.98817225148419</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.14069865571398</v>
+        <v>5.91901201848412</v>
       </c>
       <c r="E24">
-        <v>13.76802456704583</v>
+        <v>7.43587008427601</v>
       </c>
       <c r="F24">
-        <v>27.71962641498958</v>
+        <v>26.31260595783866</v>
       </c>
       <c r="G24">
-        <v>28.00506326346388</v>
+        <v>35.55016245055139</v>
       </c>
       <c r="H24">
-        <v>13.18950592823689</v>
+        <v>9.846393605531429</v>
       </c>
       <c r="I24">
-        <v>17.7555939661624</v>
+        <v>14.06049560401179</v>
       </c>
       <c r="J24">
-        <v>9.682184351039851</v>
+        <v>5.027228737599508</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.42325432292902</v>
+        <v>25.83264606642027</v>
       </c>
       <c r="N24">
-        <v>17.43332314968954</v>
+        <v>16.09753540859784</v>
       </c>
       <c r="O24">
-        <v>20.14907972905904</v>
+        <v>18.73619659321547</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.575618328287377</v>
+        <v>10.01854114523192</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.1858477527694</v>
+        <v>5.901864042250264</v>
       </c>
       <c r="E25">
-        <v>13.87109568737666</v>
+        <v>7.584412626146935</v>
       </c>
       <c r="F25">
-        <v>27.43769375697336</v>
+        <v>24.35762206858364</v>
       </c>
       <c r="G25">
-        <v>27.1406887807382</v>
+        <v>32.29135244217075</v>
       </c>
       <c r="H25">
-        <v>13.16628650446294</v>
+        <v>9.356147152312307</v>
       </c>
       <c r="I25">
-        <v>17.78889475117704</v>
+        <v>13.8882324848138</v>
       </c>
       <c r="J25">
-        <v>9.746369500046564</v>
+        <v>5.189013967313713</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.58215106567086</v>
+        <v>23.48650995230197</v>
       </c>
       <c r="N25">
-        <v>17.29037502529173</v>
+        <v>15.49697393277619</v>
       </c>
       <c r="O25">
-        <v>19.95518773915965</v>
+        <v>17.37277330791661</v>
       </c>
     </row>
   </sheetData>
